--- a/biology/Zoologie/Gorilles_dans_la_brume_(film)/Gorilles_dans_la_brume_(film).xlsx
+++ b/biology/Zoologie/Gorilles_dans_la_brume_(film)/Gorilles_dans_la_brume_(film).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gorilles dans la brume (Gorillas in the Mist: The Story of Dian Fossey) est un film américain, réalisé par Michael Apted, sorti sur les écrans en 1988. Il est consacré à l'engagement de Dian Fossey en Afrique centrale pour la protection des gorilles des montagnes.
 </t>
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1967, une étudiante du Kentucky, Dian Fossey, est engagée par l'anthropologue Louis Leakey pour étudier et recenser des gorilles des montagnes à la frontière du Rwanda et de la République démocratique du Congo. De plus en plus fascinée par ces animaux, elle décide de se consacrer à temps plein à leur étude et à leur défense et s'installe près de leur habitat avec son fidèle second, Sembagare. Un journaliste de National Geographic, Bob Campbell, est envoyé par son employeur pour la photographier au milieu des gorilles. Le couple tombe bientôt amoureux, mais Dian préfère laisser tomber son histoire d'amour plutôt que de s'éloigner de ses animaux qu'elle chérit de plus en plus.
 Préoccupée par le braconnage dont les gorilles sont victimes, elle tente de s'allier avec le gouvernement rwandais pour les protéger mais celui-ci semble plutôt réticent. Le braconnage est en effet le seul moyen de survie de certains Rwandais. Elle rejette cette thèse car elle s'aperçoit qu'à ce rythme les gorilles vont bientôt être en état d'extinction. Elle crée plusieurs patrouilles anti-braconnage et mène une campagne presque violente contre les villageois engagés par des Occidentaux avides de prendre possession de peaux, de mains ou de têtes de gorilles. Dian Fossey meurt assassinée le 26 décembre 1985 dans des circonstances restées mystérieuses.
@@ -543,7 +557,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre anglais : Gorillas in the Mist: The Story of Dian Fossey
 Titre anglais alternatif : The Adventure of Dian Fossey
@@ -594,7 +610,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Sigourney Weaver (VF : Tania Torrens) : Dian Fossey
 Bryan Brown (VF : Vania Vilers) : Bob Campbell
@@ -634,7 +652,9 @@
           <t>Différences avec la réalité historique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Ce n'est pas Dian Fossey qui a tenté de convaincre le Dr Louis Leakey de l'envoyer en Afrique mais celui-ci qui le lui a demandé. Dian Fossey a d'abord été réticente à cause de son manque d'expérience dans le domaine animal.
 Dian Fossey a effectué son premier séjour en Afrique en 1963 et non en 1966 comme dans le film.
@@ -667,7 +687,9 @@
           <t>Autour du film</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Le film a été tourné au Rwanda et au Kenya pendant l'été 1987. Les coûts de production ont été d'environ 22 000 000 $.
 Des costumes de gorilles réalistes furent utilisés pour les besoins de certaines scènes impossible à tourner avec l'actrice Sigourney Weaver. Ils présentent quelques différences anatomiques avec les vrais gorilles filmés dans les montagnes du Rwanda.
@@ -699,7 +721,9 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>61e cérémonie des Oscars :
 nomination pour l'Oscar de la meilleure actrice pour Sigourney Weaver
